--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -67,28 +70,34 @@
     <t>sc</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>strong</t>
   </si>
   <si>
     <t>thanks</t>
@@ -100,91 +109,94 @@
     <t>positive</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>giving</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>store</t>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -542,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -653,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6923076923076923</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5958904109589042</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5833333333333334</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,31 +791,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>119</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L6">
+        <v>97</v>
+      </c>
+      <c r="M6">
+        <v>97</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6">
-        <v>0.8913043478260869</v>
-      </c>
-      <c r="L6">
-        <v>41</v>
-      </c>
-      <c r="M6">
-        <v>41</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5517241379310345</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>0.8518518518518519</v>
@@ -861,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3684210526315789</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -879,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8392857142857143</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2133333333333333</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1627906976744186</v>
+        <v>0.24</v>
       </c>
       <c r="C10">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>432</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1587301587301587</v>
+        <v>0.1821705426356589</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>159</v>
+        <v>422</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,89 +1073,137 @@
         <v>17</v>
       </c>
       <c r="B12">
+        <v>0.1798941798941799</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>155</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L12">
+        <v>45</v>
+      </c>
+      <c r="M12">
+        <v>45</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.1073825503355705</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>133</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L13">
+        <v>38</v>
+      </c>
+      <c r="M13">
+        <v>38</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
         <v>0.05158730158730158</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>239</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L12">
-        <v>28</v>
-      </c>
-      <c r="M12">
-        <v>28</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>0.775</v>
-      </c>
-      <c r="L13">
-        <v>93</v>
-      </c>
-      <c r="M13">
-        <v>93</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7727272727272727</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1155,21 +1215,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7058823529411765</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1181,21 +1241,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.704225352112676</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1207,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.6944444444444444</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1233,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.675</v>
       </c>
       <c r="L18">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1259,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.6792452830188679</v>
+        <v>0.66</v>
       </c>
       <c r="L19">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1285,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.6349206349206349</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1311,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1337,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.58</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1363,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.574468085106383</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L23">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1389,21 +1449,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.5625</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1415,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5106382978723404</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1441,21 +1501,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5091383812010444</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L26">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1467,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>188</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.4943820224719101</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1493,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.4705882352941176</v>
+        <v>0.4856396866840731</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1519,21 +1579,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.4529411764705882</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L29">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1545,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>186</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.4067796610169492</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L30">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="M30">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1571,21 +1631,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.3939393939393939</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1597,21 +1657,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.3717948717948718</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1623,21 +1683,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1649,21 +1709,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.3424657534246575</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1675,21 +1735,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>48</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.297071129707113</v>
+        <v>0.325</v>
       </c>
       <c r="L35">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1701,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>168</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.2769230769230769</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1727,21 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.25</v>
+        <v>0.265625</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1753,21 +1813,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.1857142857142857</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1779,21 +1839,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.02219755826859045</v>
+        <v>0.03125</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1805,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>881</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.01565995525727069</v>
+        <v>0.02572706935123042</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1831,7 +1891,59 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>880</v>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41">
+        <v>0.01775804661487236</v>
+      </c>
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <v>16</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42">
+        <v>0.00700280112044818</v>
+      </c>
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <v>16</v>
+      </c>
+      <c r="N42">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O42">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2127</v>
       </c>
     </row>
   </sheetData>
